--- a/deployment/Omaha_Cal_Info_CE09OSPM_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSPM_00004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>Ref Des</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>N00069</t>
+  </si>
+  <si>
+    <t>OL000375</t>
   </si>
 </sst>
 </file>
@@ -883,29 +886,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="12.6640625"/>
-    <col min="12" max="12" width="51.6640625"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.6640625"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="12.7109375"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6">
+    <row r="1" spans="1:14" ht="38.25">
       <c r="A1" s="27" t="s">
         <v>54</v>
       </c>
@@ -943,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -962,7 +965,9 @@
       <c r="F2" s="11">
         <v>0.91388888888888886</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>42501</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
@@ -1001,30 +1006,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875"/>
-    <col min="11" max="11" width="14.44140625"/>
-    <col min="12" max="12" width="13.44140625"/>
-    <col min="13" max="1027" width="8.6640625"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="14.42578125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6">
+    <row r="1" spans="1:15" ht="25.5">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="15.6">
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1064,7 +1069,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1083,8 +1088,10 @@
       <c r="F3" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="15.6">
+      <c r="K3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1094,7 +1101,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1119,8 +1126,10 @@
       <c r="H5" s="25">
         <v>46.852068333333335</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="19"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1145,8 +1154,10 @@
       <c r="H6" s="25">
         <v>-124.96600333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1155,8 +1166,10 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
       <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1181,8 +1194,10 @@
       <c r="H8" s="25">
         <v>46.852068333333335</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1207,8 +1222,9 @@
       <c r="H9" s="25">
         <v>-124.96600333333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1236,8 +1252,9 @@
       <c r="I10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1262,8 +1279,9 @@
       <c r="H11" s="26">
         <v>-871.61</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1288,8 +1306,9 @@
       <c r="H12" s="26">
         <v>-3.8576000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1314,8 +1333,9 @@
       <c r="H13" s="26">
         <v>1.3795999999999999E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1340,8 +1360,9 @@
       <c r="H14" s="26">
         <v>-2.2318E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1366,8 +1387,9 @@
       <c r="H15" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1376,8 +1398,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1405,8 +1428,9 @@
       <c r="I17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1431,8 +1455,9 @@
       <c r="H18" s="24">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1457,8 +1482,9 @@
       <c r="H19" s="24">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1483,8 +1509,9 @@
       <c r="H20" s="24">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1509,8 +1536,9 @@
       <c r="H21" s="23">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1535,8 +1563,9 @@
       <c r="H22" s="23">
         <v>3.2880000000000001E-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1590,9 @@
       <c r="H23" s="23">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1587,8 +1617,9 @@
       <c r="H24" s="23">
         <v>8.1299999999999997E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1613,8 +1644,9 @@
       <c r="H25" s="23">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1639,8 +1671,9 @@
       <c r="H26" s="22">
         <v>1.21E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1649,8 +1682,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
       <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -1678,8 +1712,9 @@
       <c r="I28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -1707,15 +1742,17 @@
       <c r="I29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -1740,8 +1777,9 @@
       <c r="H31" s="25">
         <v>46.852068333333335</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -1766,8 +1804,9 @@
       <c r="H32" s="25">
         <v>-124.96600333333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1776,8 +1815,9 @@
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
       <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -1790,13 +1830,16 @@
       <c r="D34" s="6">
         <v>4</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="14" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="K34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
